--- a/biology/Zoologie/Beauclaire_miroir/Beauclaire_miroir.xlsx
+++ b/biology/Zoologie/Beauclaire_miroir/Beauclaire_miroir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Priacanthus hamrur, communément appelé Gros-yeux commun, Beauclaire miroir ou encore Priacanthe commun, est une espèce de poissons marins de la famille des Priacanthidés.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Priacanthus hamrur se rencontre dans le bassin Indo-Pacifique, de la mer Rouge à la pointe de l'Afrique du Sud jusqu'à la Polynésie française, et au nord jusqu'au sud du Japon et vers le sud jusqu'à l'Australie. Il a été enregistré également à l'île de Pâques[2]. Il vit à une profondeur comprise entre 8 et 250 m.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Priacanthus hamrur se rencontre dans le bassin Indo-Pacifique, de la mer Rouge à la pointe de l'Afrique du Sud jusqu'à la Polynésie française, et au nord jusqu'au sud du Japon et vers le sud jusqu'à l'Australie. Il a été enregistré également à l'île de Pâques. Il vit à une profondeur comprise entre 8 et 250 m.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Priacanthus hamrur est de 45 cm mais sa taille habituelle est de 20 à 40 cm[2]. Sa maturité est atteinte lorsqu'il mesure une vingtaine de centimètres[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Priacanthus hamrur est de 45 cm mais sa taille habituelle est de 20 à 40 cm. Sa maturité est atteinte lorsqu'il mesure une vingtaine de centimètres.
 Sa robe est capable de passer de l'argent rosé au rouge le plus vif presque instantanément.
-Il vit solitaire ou en bancs[3].
+Il vit solitaire ou en bancs.
 </t>
         </is>
       </c>
